--- a/Analysis/Method4/method4.xlsx
+++ b/Analysis/Method4/method4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COP290 Design Practices\cop290_asgn1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COP290 Design Practices\cop290_asgn1\Analysis\Method4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CAC345-D8DF-47AA-8806-927ACB9BA82A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350DE463-B64B-445D-8467-E7E2615D34D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{208374DC-34B0-4220-B132-2320B937E3D0}"/>
   </bookViews>
@@ -231,28 +231,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>237</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>260</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>167</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>217</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>237</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>260</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
